--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H2">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I2">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J2">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N2">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O2">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P2">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q2">
-        <v>943.6236815306135</v>
+        <v>180.4339683772356</v>
       </c>
       <c r="R2">
-        <v>8492.61313377552</v>
+        <v>1623.90571539512</v>
       </c>
       <c r="S2">
-        <v>0.1776375486219696</v>
+        <v>0.1274885042678467</v>
       </c>
       <c r="T2">
-        <v>0.2128444126070584</v>
+        <v>0.1471443736661025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H3">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I3">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J3">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>104.214408</v>
       </c>
       <c r="O3">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P3">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q3">
-        <v>801.1214436590082</v>
+        <v>205.7338545678773</v>
       </c>
       <c r="R3">
-        <v>7210.092992931073</v>
+        <v>1851.604691110896</v>
       </c>
       <c r="S3">
-        <v>0.150811443359757</v>
+        <v>0.1453645432288043</v>
       </c>
       <c r="T3">
-        <v>0.1807015089171311</v>
+        <v>0.1677764971006572</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H4">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I4">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J4">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N4">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O4">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P4">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q4">
-        <v>433.7158532615361</v>
+        <v>140.3043566303822</v>
       </c>
       <c r="R4">
-        <v>3903.442679353825</v>
+        <v>1262.73920967344</v>
       </c>
       <c r="S4">
-        <v>0.08164718889514816</v>
+        <v>0.09913428568878443</v>
       </c>
       <c r="T4">
-        <v>0.09782924891846928</v>
+        <v>0.1144185702097973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H5">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I5">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J5">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N5">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O5">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P5">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q5">
-        <v>588.3180340205121</v>
+        <v>155.267311974841</v>
       </c>
       <c r="R5">
-        <v>3529.908204123072</v>
+        <v>931.603871849046</v>
       </c>
       <c r="S5">
-        <v>0.110751113414177</v>
+        <v>0.1097066009432125</v>
       </c>
       <c r="T5">
-        <v>0.08846761608336684</v>
+        <v>0.08441393298181125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H6">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I6">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J6">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N6">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O6">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P6">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q6">
-        <v>489.5984790696641</v>
+        <v>143.9014849086587</v>
       </c>
       <c r="R6">
-        <v>4406.386311626977</v>
+        <v>1295.113364177928</v>
       </c>
       <c r="S6">
-        <v>0.09216711633382023</v>
+        <v>0.1016758941673956</v>
       </c>
       <c r="T6">
-        <v>0.1104341727857654</v>
+        <v>0.1173520377395753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I7">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J7">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N7">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O7">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P7">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q7">
-        <v>78.80726857402223</v>
+        <v>58.67841013671113</v>
       </c>
       <c r="R7">
-        <v>709.2654171662001</v>
+        <v>528.1056912304001</v>
       </c>
       <c r="S7">
-        <v>0.01483550092805542</v>
+        <v>0.04146016855043781</v>
       </c>
       <c r="T7">
-        <v>0.01777582220233869</v>
+        <v>0.04785239711204165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I8">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J8">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>104.214408</v>
       </c>
       <c r="O8">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P8">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q8">
-        <v>66.90611311114668</v>
+        <v>66.90611311114667</v>
       </c>
       <c r="R8">
         <v>602.1550180003201</v>
       </c>
       <c r="S8">
-        <v>0.01259510348618008</v>
+        <v>0.04727358359198849</v>
       </c>
       <c r="T8">
-        <v>0.01509138931513921</v>
+        <v>0.05456211043139239</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I9">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J9">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N9">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O9">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P9">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q9">
-        <v>36.22202621849334</v>
+        <v>45.62797491164446</v>
       </c>
       <c r="R9">
-        <v>325.9982359664401</v>
+        <v>410.6517742048001</v>
       </c>
       <c r="S9">
-        <v>0.00681881142823472</v>
+        <v>0.03223917495454415</v>
       </c>
       <c r="T9">
-        <v>0.008170265376773043</v>
+        <v>0.03720973301429435</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I10">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J10">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N10">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O10">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P10">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q10">
-        <v>49.13371529505334</v>
+        <v>50.49403443722001</v>
       </c>
       <c r="R10">
-        <v>294.80229177032</v>
+        <v>302.9642066233201</v>
       </c>
       <c r="S10">
-        <v>0.009249442241154574</v>
+        <v>0.03567736708750732</v>
       </c>
       <c r="T10">
-        <v>0.007388423284880429</v>
+        <v>0.02745201153257181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I11">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J11">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N11">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O11">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P11">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q11">
-        <v>40.88909550350667</v>
+        <v>46.79778661797334</v>
       </c>
       <c r="R11">
-        <v>368.0018595315601</v>
+        <v>421.18007956176</v>
       </c>
       <c r="S11">
-        <v>0.007697389152877973</v>
+        <v>0.03306572411297691</v>
       </c>
       <c r="T11">
-        <v>0.009222972764270797</v>
+        <v>0.03816371752388049</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H12">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I12">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J12">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N12">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O12">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P12">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q12">
-        <v>516.8863402813066</v>
+        <v>70.18364542383999</v>
       </c>
       <c r="R12">
-        <v>3101.318041687839</v>
+        <v>421.10187254304</v>
       </c>
       <c r="S12">
-        <v>0.09730406750158878</v>
+        <v>0.04958937643295294</v>
       </c>
       <c r="T12">
-        <v>0.07772616113472533</v>
+        <v>0.03815663107626425</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H13">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I13">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J13">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>104.214408</v>
       </c>
       <c r="O13">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P13">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q13">
-        <v>438.828252447104</v>
+        <v>80.02457647267198</v>
       </c>
       <c r="R13">
-        <v>2632.969514682624</v>
+        <v>480.1474588360319</v>
       </c>
       <c r="S13">
-        <v>0.08260960015789665</v>
+        <v>0.05654264355500382</v>
       </c>
       <c r="T13">
-        <v>0.06598827015163643</v>
+        <v>0.04350683443503261</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H14">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I14">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J14">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N14">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O14">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P14">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q14">
-        <v>237.575428109968</v>
+        <v>54.57437591008</v>
       </c>
       <c r="R14">
-        <v>1425.452568659808</v>
+        <v>327.44625546048</v>
       </c>
       <c r="S14">
-        <v>0.04472367267618275</v>
+        <v>0.03856039757204114</v>
       </c>
       <c r="T14">
-        <v>0.03572511898239952</v>
+        <v>0.02967036430272036</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H15">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I15">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J15">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N15">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O15">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P15">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q15">
-        <v>322.261470836656</v>
+        <v>60.394536946458</v>
       </c>
       <c r="R15">
-        <v>1289.045883346624</v>
+        <v>241.578147785832</v>
       </c>
       <c r="S15">
-        <v>0.0606658552717519</v>
+        <v>0.0426727253770502</v>
       </c>
       <c r="T15">
-        <v>0.03230645380198605</v>
+        <v>0.02188973467509124</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H16">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I16">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J16">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N16">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O16">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P16">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q16">
-        <v>268.186111695632</v>
+        <v>55.97355577569598</v>
       </c>
       <c r="R16">
-        <v>1609.116670173792</v>
+        <v>335.8413346541759</v>
       </c>
       <c r="S16">
-        <v>0.05048614653120512</v>
+        <v>0.03954901046945372</v>
       </c>
       <c r="T16">
-        <v>0.04032816367405948</v>
+        <v>0.03043105419876716</v>
       </c>
     </row>
   </sheetData>
